--- a/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.98</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>001573</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>南方互联网+灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001573</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方互联网+灵活配置混合</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>63.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>009557</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>申万菱信创业板量化精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -828,15 +948,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>44.96</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>44.96</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009557</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票A</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1330,13 +1395,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1726,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,209 +455,665 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信先行策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6705</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0996</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001573</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方互联网+灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0348</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1093,177 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>398011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海分红增利混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1303</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012496</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>同泰行业优选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>同泰行业优选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1271,81 +1557,81 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>87.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2333</t>
+          <t>0.6705</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1353,406 +1639,120 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2217</t>
+          <t>0.0996</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001573</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方互联网+灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2135</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1626</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1538</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001167</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰科技创新股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1479</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -566,6 +583,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1113,7 +1262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1549,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300031-宝通科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -884,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1262,7 +1449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1698,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
